--- a/data/CS1/market data/cs1_market_data_2020.xlsx
+++ b/data/CS1/market data/cs1_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6F39B-6A9E-40EA-A847-AEAA32C491D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118BF958-4FA1-48E2-BA4E-23CA98170941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>

--- a/data/CS1/market data/cs1_market_data_2020.xlsx
+++ b/data/CS1/market data/cs1_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118BF958-4FA1-48E2-BA4E-23CA98170941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B6F5B3-D1D6-4163-BC9C-F822B92C1DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -144,8 +144,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>

--- a/data/CS1/market data/cs1_market_data_2020.xlsx
+++ b/data/CS1/market data/cs1_market_data_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_4\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B49675-C1DE-405D-B439-C8AAAABEEEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEED95A-F496-4C9D-A144-DF7E71504000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>-5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="3">
@@ -150,12 +150,12 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>5.0000000000000001E-3</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2221,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3193,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,7 +4086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB224AF7-AF06-40B8-9986-34C502BD82F3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4532,7 +4534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82C02F-BCC0-4FE2-9CCD-B8D1440925A2}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5003,7 +5007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78952B52-95E9-4A46-956D-99C2442CB011}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5448,7 +5454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6F8DD-C4F6-4B8F-AEB1-9B49F4112981}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
